--- a/Kolkata/Frono_Sales_Invoice_Report/PurchaseInvoice (3).xlsx
+++ b/Kolkata/Frono_Sales_Invoice_Report/PurchaseInvoice (3).xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -444,25 +444,25 @@
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>PI210</v>
+        <v>PI212</v>
       </c>
       <c r="C2" t="str">
-        <v>24/04/2025</v>
+        <v>22/04/2025</v>
       </c>
       <c r="D2" t="str">
-        <v>Farhan Enterprise</v>
-      </c>
-      <c r="E2">
-        <v>28</v>
+        <v>Loukya Weavetech</v>
+      </c>
+      <c r="E2" t="str">
+        <v>LW/25-26/0141</v>
       </c>
       <c r="F2" t="str">
-        <v>24/04/2025</v>
+        <v>22/04/2025</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>54710</v>
+        <v>276</v>
       </c>
       <c r="I2" t="str">
         <v>Unpaid</v>
@@ -471,62 +471,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L2" t="str">
-        <v>25/04/2025 07:28 PM</v>
+        <v>26/04/2025 12:47 PM</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>PI209</v>
+        <v>PI211</v>
       </c>
       <c r="C3" t="str">
-        <v>22/04/2025</v>
+        <v>14/04/2025</v>
       </c>
       <c r="D3" t="str">
-        <v>Md. Fashion</v>
-      </c>
-      <c r="E3">
-        <v>108</v>
+        <v>Geetas Circle</v>
+      </c>
+      <c r="E3" t="str">
+        <v>CA508</v>
       </c>
       <c r="F3" t="str">
-        <v>22/04/2025</v>
+        <v>14/04/2025</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
-        <v>31970</v>
+        <v>2644</v>
       </c>
       <c r="I3" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K3" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L3" t="str">
-        <v>25/04/2025 07:16 PM</v>
+        <v>26/04/2025 12:32 PM</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>PI208</v>
+        <v>PI210</v>
       </c>
       <c r="C4" t="str">
-        <v>25/04/2025</v>
+        <v>24/04/2025</v>
       </c>
       <c r="D4" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
+        <v>Farhan Enterprise</v>
       </c>
       <c r="E4">
-        <v>397</v>
+        <v>28</v>
       </c>
       <c r="F4" t="str">
-        <v>25/04/2025</v>
+        <v>24/04/2025</v>
       </c>
       <c r="G4">
-        <v>280.5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>7069</v>
+        <v>54710</v>
       </c>
       <c r="I4" t="str">
         <v>Unpaid</v>
@@ -535,30 +535,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L4" t="str">
-        <v>25/04/2025 01:51 PM</v>
+        <v>25/04/2025 07:28 PM</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>PI207</v>
+        <v>PI209</v>
       </c>
       <c r="C5" t="str">
-        <v>21/04/2025</v>
+        <v>22/04/2025</v>
       </c>
       <c r="D5" t="str">
-        <v>R K Fashion</v>
-      </c>
-      <c r="E5" t="str">
-        <v>RKF/25-26/0024</v>
+        <v>Md. Fashion</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
       </c>
       <c r="F5" t="str">
-        <v>21/04/2025</v>
+        <v>22/04/2025</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>7203</v>
+        <v>31970</v>
       </c>
       <c r="I5" t="str">
         <v>Unpaid</v>
@@ -567,30 +567,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L5" t="str">
-        <v>25/04/2025 11:53 AM</v>
+        <v>25/04/2025 07:16 PM</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>PI206</v>
+        <v>PI208</v>
       </c>
       <c r="C6" t="str">
-        <v>16/04/2025</v>
+        <v>25/04/2025</v>
       </c>
       <c r="D6" t="str">
-        <v>Nurjamal Sekh</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E6">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="F6" t="str">
-        <v>16/04/2025</v>
+        <v>25/04/2025</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>280.5</v>
       </c>
       <c r="H6">
-        <v>390</v>
+        <v>7069</v>
       </c>
       <c r="I6" t="str">
         <v>Unpaid</v>
@@ -599,62 +599,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L6" t="str">
-        <v>24/04/2025 03:24 PM</v>
+        <v>25/04/2025 01:51 PM</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>PI205</v>
+        <v>PI207</v>
       </c>
       <c r="C7" t="str">
-        <v>24/04/2025</v>
+        <v>21/04/2025</v>
       </c>
       <c r="D7" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
-      </c>
-      <c r="E7">
-        <v>385</v>
+        <v>R K Fashion</v>
+      </c>
+      <c r="E7" t="str">
+        <v>RKF/25-26/0024</v>
       </c>
       <c r="F7" t="str">
-        <v>24/04/2025</v>
+        <v>21/04/2025</v>
       </c>
       <c r="G7">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="H7">
-        <v>3528</v>
+        <v>7203</v>
       </c>
       <c r="I7" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K7" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L7" t="str">
-        <v>24/04/2025 03:23 PM</v>
+        <v>25/04/2025 11:53 AM</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>PI201</v>
+        <v>PI206</v>
       </c>
       <c r="C8" t="str">
-        <v>23/04/2025</v>
+        <v>16/04/2025</v>
       </c>
       <c r="D8" t="str">
-        <v>Nasir Enterprise</v>
+        <v>Nurjamal Sekh</v>
       </c>
       <c r="E8">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="F8" t="str">
-        <v>23/04/2025</v>
+        <v>16/04/2025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>3100</v>
+        <v>390</v>
       </c>
       <c r="I8" t="str">
         <v>Unpaid</v>
@@ -663,62 +663,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L8" t="str">
-        <v>23/04/2025 07:29 PM</v>
+        <v>24/04/2025 03:24 PM</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>PI200</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>12/04/2025</v>
+        <v>PI205</v>
+      </c>
+      <c r="C9" t="str">
+        <v>24/04/2025</v>
       </c>
       <c r="D9" t="str">
-        <v>Hasanuzzaman Molla</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E9">
-        <v>258</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <v>12/04/2025</v>
+        <v>385</v>
+      </c>
+      <c r="F9" t="str">
+        <v>24/04/2025</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H9">
-        <v>3490</v>
+        <v>3528</v>
       </c>
       <c r="I9" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K9" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L9" t="str">
-        <v>23/04/2025 07:18 PM</v>
+        <v>24/04/2025 03:23 PM</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>PI199</v>
+        <v>PI201</v>
       </c>
       <c r="C10" t="str">
-        <v>22/04/2025</v>
+        <v>23/04/2025</v>
       </c>
       <c r="D10" t="str">
-        <v>Sk Atiyer Rahaman (Atifa Buttik)</v>
+        <v>Nasir Enterprise</v>
       </c>
       <c r="E10">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="F10" t="str">
-        <v>22/04/2025</v>
+        <v>23/04/2025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>53690</v>
+        <v>3100</v>
       </c>
       <c r="I10" t="str">
         <v>Unpaid</v>
@@ -727,30 +727,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L10" t="str">
-        <v>23/04/2025 05:49 PM</v>
+        <v>23/04/2025 07:29 PM</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>PI198</v>
-      </c>
-      <c r="C11" t="str">
-        <v>23/04/2025</v>
+        <v>PI200</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>12/04/2025</v>
       </c>
       <c r="D11" t="str">
-        <v>M.m.embroidery (Md Makbul Mullick)</v>
+        <v>Hasanuzzaman Molla</v>
       </c>
       <c r="E11">
-        <v>231</v>
-      </c>
-      <c r="F11" t="str">
-        <v>23/04/2025</v>
+        <v>258</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>12/04/2025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>970</v>
+        <v>3490</v>
       </c>
       <c r="I11" t="str">
         <v>Unpaid</v>
@@ -759,30 +759,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L11" t="str">
-        <v>23/04/2025 04:33 PM</v>
+        <v>23/04/2025 07:18 PM</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>PI197</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>PI199</v>
+      </c>
+      <c r="C12" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="D12" t="str">
-        <v>Farhan Enterprise</v>
+        <v>Sk Atiyer Rahaman (Atifa Buttik)</v>
       </c>
       <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>304</v>
+      </c>
+      <c r="F12" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>350</v>
+        <v>53690</v>
       </c>
       <c r="I12" t="str">
         <v>Unpaid</v>
@@ -791,30 +791,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L12" t="str">
-        <v>23/04/2025 01:21 PM</v>
+        <v>23/04/2025 05:49 PM</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>PI196</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>PI198</v>
+      </c>
+      <c r="C13" t="str">
+        <v>23/04/2025</v>
       </c>
       <c r="D13" t="str">
-        <v>Farhan Enterprise</v>
+        <v>M.m.embroidery (Md Makbul Mullick)</v>
       </c>
       <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>231</v>
+      </c>
+      <c r="F13" t="str">
+        <v>23/04/2025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1870</v>
+        <v>970</v>
       </c>
       <c r="I13" t="str">
         <v>Unpaid</v>
@@ -823,30 +823,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L13" t="str">
-        <v>23/04/2025 01:19 PM</v>
+        <v>23/04/2025 04:33 PM</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>PI195</v>
-      </c>
-      <c r="C14" t="str">
-        <v>15/04/2025</v>
+        <v>PI197</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="D14" t="str">
-        <v>Rubia Parvin</v>
+        <v>Farhan Enterprise</v>
       </c>
       <c r="E14">
-        <v>44</v>
-      </c>
-      <c r="F14" t="str">
-        <v>15/04/2025</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>56070</v>
+        <v>350</v>
       </c>
       <c r="I14" t="str">
         <v>Unpaid</v>
@@ -855,30 +855,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L14" t="str">
-        <v>23/04/2025 01:12 PM</v>
+        <v>23/04/2025 01:21 PM</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>PI194</v>
-      </c>
-      <c r="C15" t="str">
-        <v>21/04/2025</v>
+        <v>PI196</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="D15" t="str">
-        <v>Lovely Creation</v>
+        <v>Farhan Enterprise</v>
       </c>
       <c r="E15">
-        <v>93</v>
-      </c>
-      <c r="F15" t="str">
-        <v>21/04/2025</v>
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1165</v>
+        <v>1870</v>
       </c>
       <c r="I15" t="str">
         <v>Unpaid</v>
@@ -887,62 +887,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L15" t="str">
-        <v>23/04/2025 01:08 PM</v>
+        <v>23/04/2025 01:19 PM</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>PI193</v>
+        <v>PI195</v>
       </c>
       <c r="C16" t="str">
-        <v>18/04/2025</v>
+        <v>15/04/2025</v>
       </c>
       <c r="D16" t="str">
-        <v>Mbt Copiers</v>
-      </c>
-      <c r="E16" t="str">
-        <v>MBT/25-25/517</v>
+        <v>Rubia Parvin</v>
+      </c>
+      <c r="E16">
+        <v>44</v>
       </c>
       <c r="F16" t="str">
-        <v>18/04/2025</v>
+        <v>15/04/2025</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2640</v>
+        <v>56070</v>
       </c>
       <c r="I16" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K16" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L16" t="str">
-        <v>22/04/2025 08:30 PM</v>
+        <v>23/04/2025 01:12 PM</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <v>PI192</v>
+        <v>PI194</v>
       </c>
       <c r="C17" t="str">
-        <v>17/04/2025</v>
+        <v>21/04/2025</v>
       </c>
       <c r="D17" t="str">
-        <v>Ess Gee Enterprises Pvt Ltd</v>
-      </c>
-      <c r="E17" t="str">
-        <v>190/2025-2026</v>
+        <v>Lovely Creation</v>
+      </c>
+      <c r="E17">
+        <v>93</v>
       </c>
       <c r="F17" t="str">
-        <v>17/04/2025</v>
+        <v>21/04/2025</v>
       </c>
       <c r="G17">
-        <v>193.5</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>13206</v>
+        <v>1165</v>
       </c>
       <c r="I17" t="str">
         <v>Unpaid</v>
@@ -951,62 +951,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L17" t="str">
-        <v>22/04/2025 05:13 PM</v>
+        <v>23/04/2025 01:08 PM</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>PI191</v>
+        <v>PI193</v>
       </c>
       <c r="C18" t="str">
-        <v>15/04/2025</v>
+        <v>18/04/2025</v>
       </c>
       <c r="D18" t="str">
-        <v>Vikas Jari Stores</v>
+        <v>Mbt Copiers</v>
       </c>
       <c r="E18" t="str">
-        <v>GST/25-26/93</v>
+        <v>MBT/25-25/517</v>
       </c>
       <c r="F18" t="str">
-        <v>15/04/2025</v>
+        <v>18/04/2025</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>1995</v>
+        <v>2640</v>
       </c>
       <c r="I18" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K18" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L18" t="str">
-        <v>22/04/2025 04:12 PM</v>
+        <v>22/04/2025 08:30 PM</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>PI190</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>PI192</v>
+      </c>
+      <c r="C19" t="str">
+        <v>17/04/2025</v>
       </c>
       <c r="D19" t="str">
-        <v>Vikas Jari Stores</v>
+        <v>Ess Gee Enterprises Pvt Ltd</v>
       </c>
       <c r="E19" t="str">
-        <v>GST/25-26/17</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>190/2025-2026</v>
+      </c>
+      <c r="F19" t="str">
+        <v>17/04/2025</v>
       </c>
       <c r="G19">
-        <v>140</v>
+        <v>193.5</v>
       </c>
       <c r="H19">
-        <v>8715</v>
+        <v>13206</v>
       </c>
       <c r="I19" t="str">
         <v>Unpaid</v>
@@ -1015,30 +1015,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L19" t="str">
-        <v>22/04/2025 04:08 PM</v>
+        <v>22/04/2025 05:13 PM</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>PI189</v>
+        <v>PI191</v>
       </c>
       <c r="C20" t="str">
-        <v>14/04/2025</v>
+        <v>15/04/2025</v>
       </c>
       <c r="D20" t="str">
         <v>Vikas Jari Stores</v>
       </c>
       <c r="E20" t="str">
-        <v>GST/25-26/88</v>
+        <v>GST/25-26/93</v>
       </c>
       <c r="F20" t="str">
-        <v>14/04/2025</v>
+        <v>15/04/2025</v>
       </c>
       <c r="G20">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>9030</v>
+        <v>1995</v>
       </c>
       <c r="I20" t="str">
         <v>Unpaid</v>
@@ -1047,94 +1047,94 @@
         <v>Suraj Production</v>
       </c>
       <c r="L20" t="str">
-        <v>22/04/2025 11:49 AM</v>
+        <v>22/04/2025 04:12 PM</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>PI187</v>
+        <v>PI190</v>
       </c>
       <c r="C21" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>02/04/2025</v>
       </c>
       <c r="D21" t="str">
-        <v>Robiul Molla</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
+        <v>Vikas Jari Stores</v>
+      </c>
+      <c r="E21" t="str">
+        <v>GST/25-26/17</v>
       </c>
       <c r="F21" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>02/04/2025</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H21">
-        <v>700</v>
+        <v>8715</v>
       </c>
       <c r="I21" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K21" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L21" t="str">
-        <v>21/04/2025 08:32 PM</v>
+        <v>22/04/2025 04:08 PM</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>PI186</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>PI189</v>
+      </c>
+      <c r="C22" t="str">
+        <v>14/04/2025</v>
       </c>
       <c r="D22" t="str">
-        <v>Robiul Molla</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>Vikas Jari Stores</v>
+      </c>
+      <c r="E22" t="str">
+        <v>GST/25-26/88</v>
+      </c>
+      <c r="F22" t="str">
+        <v>14/04/2025</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H22">
-        <v>350</v>
+        <v>9030</v>
       </c>
       <c r="I22" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K22" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L22" t="str">
-        <v>21/04/2025 08:32 PM</v>
+        <v>22/04/2025 11:49 AM</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>PI185</v>
+        <v>PI187</v>
       </c>
       <c r="C23" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>09/04/2025</v>
       </c>
       <c r="D23" t="str">
         <v>Robiul Molla</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>09/04/2025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3200</v>
+        <v>700</v>
       </c>
       <c r="I23" t="str">
         <v>Unpaid</v>
@@ -1143,12 +1143,12 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L23" t="str">
-        <v>21/04/2025 08:31 PM</v>
+        <v>21/04/2025 08:32 PM</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>PI184</v>
+        <v>PI186</v>
       </c>
       <c r="C24" s="1" t="str">
         <v>01/04/2025</v>
@@ -1157,7 +1157,7 @@
         <v>Robiul Molla</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="str">
         <v>01/04/2025</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="I24" t="str">
         <v>Unpaid</v>
@@ -1175,12 +1175,12 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L24" t="str">
-        <v>21/04/2025 08:30 PM</v>
+        <v>21/04/2025 08:32 PM</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <v>PI183</v>
+        <v>PI185</v>
       </c>
       <c r="C25" s="1" t="str">
         <v>01/04/2025</v>
@@ -1189,7 +1189,7 @@
         <v>Robiul Molla</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="str">
         <v>01/04/2025</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="I25" t="str">
         <v>Unpaid</v>
@@ -1207,12 +1207,12 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L25" t="str">
-        <v>21/04/2025 08:28 PM</v>
+        <v>21/04/2025 08:31 PM</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
-        <v>PI182</v>
+        <v>PI184</v>
       </c>
       <c r="C26" s="1" t="str">
         <v>01/04/2025</v>
@@ -1221,7 +1221,7 @@
         <v>Robiul Molla</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="str">
         <v>01/04/2025</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="I26" t="str">
         <v>Unpaid</v>
@@ -1239,12 +1239,12 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L26" t="str">
-        <v>21/04/2025 08:27 PM</v>
+        <v>21/04/2025 08:30 PM</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="str">
-        <v>PI181</v>
+        <v>PI183</v>
       </c>
       <c r="C27" s="1" t="str">
         <v>01/04/2025</v>
@@ -1253,7 +1253,7 @@
         <v>Robiul Molla</v>
       </c>
       <c r="E27">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1" t="str">
         <v>01/04/2025</v>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="I27" t="str">
         <v>Unpaid</v>
@@ -1271,158 +1271,158 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L27" t="str">
-        <v>21/04/2025 08:26 PM</v>
+        <v>21/04/2025 08:28 PM</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <v>PI180</v>
-      </c>
-      <c r="C28" t="str">
-        <v>21/04/2025</v>
+        <v>PI182</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="D28" t="str">
-        <v>M.m.embroidery (Md Makbul Mullick)</v>
+        <v>Robiul Molla</v>
       </c>
       <c r="E28">
-        <v>229</v>
-      </c>
-      <c r="F28" t="str">
-        <v>21/04/2025</v>
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1940</v>
+        <v>350</v>
       </c>
       <c r="I28" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K28" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L28" t="str">
-        <v>21/04/2025 07:29 PM</v>
+        <v>21/04/2025 08:27 PM</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
-        <v>PI179</v>
-      </c>
-      <c r="C29" t="str">
-        <v>21/04/2025</v>
+        <v>PI181</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="D29" t="str">
-        <v>M.m.embroidery (Md Makbul Mullick)</v>
+        <v>Robiul Molla</v>
       </c>
       <c r="E29">
-        <v>228</v>
-      </c>
-      <c r="F29" t="str">
-        <v>21/04/2025</v>
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>29100</v>
+        <v>700</v>
       </c>
       <c r="I29" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K29" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L29" t="str">
-        <v>21/04/2025 07:10 PM</v>
+        <v>21/04/2025 08:26 PM</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="str">
-        <v>PI178</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>PI180</v>
+      </c>
+      <c r="C30" t="str">
+        <v>21/04/2025</v>
       </c>
       <c r="D30" t="str">
-        <v>Sk Nurul Alam</v>
+        <v>M.m.embroidery (Md Makbul Mullick)</v>
       </c>
       <c r="E30">
-        <v>407</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>229</v>
+      </c>
+      <c r="F30" t="str">
+        <v>21/04/2025</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>22900</v>
+        <v>1940</v>
       </c>
       <c r="I30" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K30" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L30" t="str">
-        <v>21/04/2025 07:00 PM</v>
+        <v>21/04/2025 07:29 PM</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <v>PI177</v>
+        <v>PI179</v>
       </c>
       <c r="C31" t="str">
-        <v>16/04/2025</v>
+        <v>21/04/2025</v>
       </c>
       <c r="D31" t="str">
-        <v>Sk Nurul Alam</v>
+        <v>M.m.embroidery (Md Makbul Mullick)</v>
       </c>
       <c r="E31">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="F31" t="str">
-        <v>16/04/2025</v>
+        <v>21/04/2025</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>29100</v>
       </c>
       <c r="I31" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K31" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L31" t="str">
-        <v>21/04/2025 06:39 PM</v>
+        <v>21/04/2025 07:10 PM</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>PI176</v>
+        <v>PI178</v>
       </c>
       <c r="C32" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="D32" t="str">
         <v>Sk Nurul Alam</v>
       </c>
       <c r="E32">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F32" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>140</v>
+        <v>22900</v>
       </c>
       <c r="I32" t="str">
         <v>Unpaid</v>
@@ -1431,30 +1431,30 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L32" t="str">
-        <v>21/04/2025 06:38 PM</v>
+        <v>21/04/2025 07:00 PM</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="str">
-        <v>PI175</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>PI177</v>
+      </c>
+      <c r="C33" t="str">
+        <v>16/04/2025</v>
       </c>
       <c r="D33" t="str">
         <v>Sk Nurul Alam</v>
       </c>
       <c r="E33">
-        <v>408</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>410</v>
+      </c>
+      <c r="F33" t="str">
+        <v>16/04/2025</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>70580</v>
+        <v>230</v>
       </c>
       <c r="I33" t="str">
         <v>Unpaid</v>
@@ -1463,30 +1463,30 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L33" t="str">
-        <v>21/04/2025 06:37 PM</v>
+        <v>21/04/2025 06:39 PM</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>PI174</v>
+        <v>PI176</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>10/04/2025</v>
       </c>
       <c r="D34" t="str">
         <v>Sk Nurul Alam</v>
       </c>
       <c r="E34">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F34" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>10/04/2025</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="I34" t="str">
         <v>Unpaid</v>
@@ -1495,12 +1495,12 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L34" t="str">
-        <v>21/04/2025 06:16 PM</v>
+        <v>21/04/2025 06:38 PM</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>PI173</v>
+        <v>PI175</v>
       </c>
       <c r="C35" s="1" t="str">
         <v>08/04/2025</v>
@@ -1509,7 +1509,7 @@
         <v>Sk Nurul Alam</v>
       </c>
       <c r="E35">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F35" s="1" t="str">
         <v>08/04/2025</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>580</v>
+        <v>70580</v>
       </c>
       <c r="I35" t="str">
         <v>Unpaid</v>
@@ -1527,30 +1527,30 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L35" t="str">
-        <v>21/04/2025 06:14 PM</v>
+        <v>21/04/2025 06:37 PM</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="str">
-        <v>PI172</v>
+        <v>PI174</v>
       </c>
       <c r="C36" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="D36" t="str">
         <v>Sk Nurul Alam</v>
       </c>
       <c r="E36">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="F36" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="I36" t="str">
         <v>Unpaid</v>
@@ -1559,30 +1559,30 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L36" t="str">
-        <v>21/04/2025 06:12 PM</v>
+        <v>21/04/2025 06:16 PM</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
-        <v>PI171</v>
-      </c>
-      <c r="C37" t="str">
-        <v>14/04/2025</v>
+        <v>PI173</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <v>08/04/2025</v>
       </c>
       <c r="D37" t="str">
-        <v>L T Fabrics Llp</v>
-      </c>
-      <c r="E37" t="str">
-        <v>D/391</v>
-      </c>
-      <c r="F37" t="str">
-        <v>14/04/2025</v>
+        <v>Sk Nurul Alam</v>
+      </c>
+      <c r="E37">
+        <v>404</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>08/04/2025</v>
       </c>
       <c r="G37">
-        <v>1393.75</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>119077</v>
+        <v>580</v>
       </c>
       <c r="I37" t="str">
         <v>Unpaid</v>
@@ -1591,30 +1591,30 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L37" t="str">
-        <v>21/04/2025 05:43 PM</v>
+        <v>21/04/2025 06:14 PM</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="str">
-        <v>PI170</v>
+        <v>PI172</v>
       </c>
       <c r="C38" s="1" t="str">
-        <v>12/04/2025</v>
+        <v>05/04/2025</v>
       </c>
       <c r="D38" t="str">
-        <v>Ess Gee Enterprises Pvt Ltd</v>
-      </c>
-      <c r="E38" t="str">
-        <v>146/2025-2026</v>
+        <v>Sk Nurul Alam</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
       </c>
       <c r="F38" s="1" t="str">
-        <v>12/04/2025</v>
+        <v>05/04/2025</v>
       </c>
       <c r="G38">
-        <v>370.5</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>38513</v>
+        <v>480</v>
       </c>
       <c r="I38" t="str">
         <v>Unpaid</v>
@@ -1623,94 +1623,94 @@
         <v>Mohit Accounts</v>
       </c>
       <c r="L38" t="str">
-        <v>21/04/2025 05:25 PM</v>
+        <v>21/04/2025 06:12 PM</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="str">
-        <v>PI169</v>
+        <v>PI171</v>
       </c>
       <c r="C39" t="str">
-        <v>20/04/2025</v>
+        <v>14/04/2025</v>
       </c>
       <c r="D39" t="str">
-        <v>Sk Atiyer Rahaman (Atifa Buttik)</v>
-      </c>
-      <c r="E39">
-        <v>303</v>
+        <v>L T Fabrics Llp</v>
+      </c>
+      <c r="E39" t="str">
+        <v>D/391</v>
       </c>
       <c r="F39" t="str">
-        <v>20/04/2025</v>
+        <v>14/04/2025</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>1393.75</v>
       </c>
       <c r="H39">
-        <v>1110</v>
+        <v>119077</v>
       </c>
       <c r="I39" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K39" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L39" t="str">
-        <v>21/04/2025 03:13 PM</v>
+        <v>21/04/2025 05:43 PM</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="str">
-        <v>PI165</v>
+        <v>PI170</v>
       </c>
       <c r="C40" s="1" t="str">
         <v>12/04/2025</v>
       </c>
       <c r="D40" t="str">
-        <v>R K Fashion</v>
+        <v>Ess Gee Enterprises Pvt Ltd</v>
       </c>
       <c r="E40" t="str">
-        <v>RKF/25-26/0014</v>
+        <v>146/2025-2026</v>
       </c>
       <c r="F40" s="1" t="str">
         <v>12/04/2025</v>
       </c>
       <c r="G40">
-        <v>41</v>
+        <v>370.5</v>
       </c>
       <c r="H40">
-        <v>42835</v>
+        <v>38513</v>
       </c>
       <c r="I40" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K40" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L40" t="str">
-        <v>19/04/2025 06:22 PM</v>
+        <v>21/04/2025 05:25 PM</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="str">
-        <v>PI164</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>11/04/2025</v>
+        <v>PI169</v>
+      </c>
+      <c r="C41" t="str">
+        <v>20/04/2025</v>
       </c>
       <c r="D41" t="str">
-        <v>R K Fashion</v>
-      </c>
-      <c r="E41" t="str">
-        <v>RKF/25-26/0013</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <v>11/04/2025</v>
+        <v>Sk Atiyer Rahaman (Atifa Buttik)</v>
+      </c>
+      <c r="E41">
+        <v>303</v>
+      </c>
+      <c r="F41" t="str">
+        <v>20/04/2025</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>3134</v>
+        <v>1110</v>
       </c>
       <c r="I41" t="str">
         <v>Unpaid</v>
@@ -1719,30 +1719,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L41" t="str">
-        <v>19/04/2025 05:39 PM</v>
+        <v>21/04/2025 03:13 PM</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="str">
-        <v>PI163</v>
+        <v>PI165</v>
       </c>
       <c r="C42" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>12/04/2025</v>
       </c>
       <c r="D42" t="str">
-        <v>Rath Stationers</v>
-      </c>
-      <c r="E42">
-        <v>7740</v>
+        <v>R K Fashion</v>
+      </c>
+      <c r="E42" t="str">
+        <v>RKF/25-26/0014</v>
       </c>
       <c r="F42" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>12/04/2025</v>
       </c>
       <c r="G42">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1392</v>
+        <v>42835</v>
       </c>
       <c r="I42" t="str">
         <v>Unpaid</v>
@@ -1751,30 +1751,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L42" t="str">
-        <v>19/04/2025 05:28 PM</v>
+        <v>19/04/2025 06:22 PM</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="str">
-        <v>PI162</v>
+        <v>PI164</v>
       </c>
       <c r="C43" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>11/04/2025</v>
       </c>
       <c r="D43" t="str">
-        <v>J.n.chunder &amp; Brothers</v>
+        <v>R K Fashion</v>
       </c>
       <c r="E43" t="str">
-        <v>JNC-000589/25-26</v>
+        <v>RKF/25-26/0013</v>
       </c>
       <c r="F43" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>11/04/2025</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>520</v>
+        <v>3134</v>
       </c>
       <c r="I43" t="str">
         <v>Unpaid</v>
@@ -1783,30 +1783,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L43" t="str">
-        <v>19/04/2025 05:23 PM</v>
+        <v>19/04/2025 05:39 PM</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="str">
-        <v>PI161</v>
+        <v>PI163</v>
       </c>
       <c r="C44" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>10/04/2025</v>
       </c>
       <c r="D44" t="str">
-        <v>R K Fashion</v>
-      </c>
-      <c r="E44" t="str">
-        <v>RKF/25--26/0002</v>
+        <v>Rath Stationers</v>
+      </c>
+      <c r="E44">
+        <v>7740</v>
       </c>
       <c r="F44" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>10/04/2025</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H44">
-        <v>4179</v>
+        <v>1392</v>
       </c>
       <c r="I44" t="str">
         <v>Unpaid</v>
@@ -1815,30 +1815,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L44" t="str">
-        <v>19/04/2025 05:16 PM</v>
+        <v>19/04/2025 05:28 PM</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="str">
-        <v>PI160</v>
-      </c>
-      <c r="C45" t="str">
-        <v>18/04/2025</v>
+        <v>PI162</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <v>10/04/2025</v>
       </c>
       <c r="D45" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
-      </c>
-      <c r="E45">
-        <v>254</v>
-      </c>
-      <c r="F45" t="str">
-        <v>18/04/2025</v>
+        <v>J.n.chunder &amp; Brothers</v>
+      </c>
+      <c r="E45" t="str">
+        <v>JNC-000589/25-26</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <v>10/04/2025</v>
       </c>
       <c r="G45">
-        <v>728.7</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>24974</v>
+        <v>520</v>
       </c>
       <c r="I45" t="str">
         <v>Unpaid</v>
@@ -1847,30 +1847,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L45" t="str">
-        <v>19/04/2025 04:56 PM</v>
+        <v>19/04/2025 05:23 PM</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="str">
-        <v>PI159</v>
-      </c>
-      <c r="C46" t="str">
-        <v>15/04/2025</v>
+        <v>PI161</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="D46" t="str">
-        <v>Terry Softy Inc</v>
+        <v>R K Fashion</v>
       </c>
       <c r="E46" t="str">
-        <v>SBM2526/71</v>
-      </c>
-      <c r="F46" t="str">
-        <v>15/04/2025</v>
+        <v>RKF/25--26/0002</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>1300</v>
+        <v>4179</v>
       </c>
       <c r="I46" t="str">
         <v>Unpaid</v>
@@ -1879,30 +1879,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L46" t="str">
-        <v>19/04/2025 04:52 PM</v>
+        <v>19/04/2025 05:16 PM</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="str">
-        <v>PI158</v>
+        <v>PI160</v>
       </c>
       <c r="C47" t="str">
-        <v>15/04/2025</v>
+        <v>18/04/2025</v>
       </c>
       <c r="D47" t="str">
-        <v>Rath Stationers</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E47">
-        <v>7758</v>
+        <v>254</v>
       </c>
       <c r="F47" t="str">
-        <v>15/04/2025</v>
+        <v>18/04/2025</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>728.7</v>
       </c>
       <c r="H47">
-        <v>920</v>
+        <v>24974</v>
       </c>
       <c r="I47" t="str">
         <v>Unpaid</v>
@@ -1911,30 +1911,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L47" t="str">
-        <v>19/04/2025 04:50 PM</v>
+        <v>19/04/2025 04:56 PM</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="str">
-        <v>PI157</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>PI159</v>
+      </c>
+      <c r="C48" t="str">
+        <v>15/04/2025</v>
       </c>
       <c r="D48" t="str">
-        <v>L T Fabrics Llp</v>
+        <v>Terry Softy Inc</v>
       </c>
       <c r="E48" t="str">
-        <v>D/218</v>
-      </c>
-      <c r="F48" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>SBM2526/71</v>
+      </c>
+      <c r="F48" t="str">
+        <v>15/04/2025</v>
       </c>
       <c r="G48">
-        <v>782</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>69794</v>
+        <v>1300</v>
       </c>
       <c r="I48" t="str">
         <v>Unpaid</v>
@@ -1943,30 +1943,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L48" t="str">
-        <v>19/04/2025 04:48 PM</v>
+        <v>19/04/2025 04:52 PM</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="str">
-        <v>PI156</v>
+        <v>PI158</v>
       </c>
       <c r="C49" t="str">
-        <v>16/04/2025</v>
+        <v>15/04/2025</v>
       </c>
       <c r="D49" t="str">
-        <v>Rajiv And Company</v>
-      </c>
-      <c r="E49" t="str">
-        <v>31//2025-26</v>
+        <v>Rath Stationers</v>
+      </c>
+      <c r="E49">
+        <v>7758</v>
       </c>
       <c r="F49" t="str">
-        <v>16/04/2025</v>
+        <v>15/04/2025</v>
       </c>
       <c r="G49">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>7080</v>
+        <v>920</v>
       </c>
       <c r="I49" t="str">
         <v>Unpaid</v>
@@ -1975,30 +1975,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L49" t="str">
-        <v>19/04/2025 04:33 PM</v>
+        <v>19/04/2025 04:50 PM</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="str">
-        <v>PI155</v>
+        <v>PI157</v>
       </c>
       <c r="C50" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="D50" t="str">
-        <v>Vesture</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <v>02/25/2026</v>
+        <v>L T Fabrics Llp</v>
+      </c>
+      <c r="E50" t="str">
+        <v>D/218</v>
       </c>
       <c r="F50" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="G50">
-        <v>142</v>
+        <v>782</v>
       </c>
       <c r="H50">
-        <v>96170</v>
+        <v>69794</v>
       </c>
       <c r="I50" t="str">
         <v>Unpaid</v>
@@ -2007,27 +2007,27 @@
         <v>Suraj Production</v>
       </c>
       <c r="L50" t="str">
-        <v>19/04/2025 04:30 PM</v>
+        <v>19/04/2025 04:48 PM</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="str">
-        <v>PI154</v>
+        <v>PI156</v>
       </c>
       <c r="C51" t="str">
-        <v>18/04/2025</v>
+        <v>16/04/2025</v>
       </c>
       <c r="D51" t="str">
-        <v>Space Computech India Pvt.ltd.</v>
+        <v>Rajiv And Company</v>
       </c>
       <c r="E51" t="str">
-        <v>SER/48/25-26</v>
+        <v>31//2025-26</v>
       </c>
       <c r="F51" t="str">
-        <v>18/04/2025</v>
+        <v>16/04/2025</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="H51">
         <v>7080</v>
@@ -2039,62 +2039,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L51" t="str">
-        <v>19/04/2025 03:56 PM</v>
+        <v>19/04/2025 04:33 PM</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="str">
-        <v>PI152</v>
-      </c>
-      <c r="C52" t="str">
-        <v>19/04/2025</v>
+        <v>PI155</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <v>07/04/2025</v>
       </c>
       <c r="D52" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
-      </c>
-      <c r="E52">
-        <v>277</v>
-      </c>
-      <c r="F52" t="str">
-        <v>19/04/2025</v>
+        <v>Vesture</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <v>02/25/2026</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <v>07/04/2025</v>
       </c>
       <c r="G52">
-        <v>1118.5</v>
+        <v>142</v>
       </c>
       <c r="H52">
-        <v>28186</v>
+        <v>96170</v>
       </c>
       <c r="I52" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K52" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L52" t="str">
-        <v>19/04/2025 12:55 PM</v>
+        <v>19/04/2025 04:30 PM</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="str">
-        <v>PI151</v>
+        <v>PI154</v>
       </c>
       <c r="C53" t="str">
-        <v>16/04/2025</v>
+        <v>18/04/2025</v>
       </c>
       <c r="D53" t="str">
-        <v>Abu Taher Naiya</v>
-      </c>
-      <c r="E53">
-        <v>14</v>
+        <v>Space Computech India Pvt.ltd.</v>
+      </c>
+      <c r="E53" t="str">
+        <v>SER/48/25-26</v>
       </c>
       <c r="F53" t="str">
-        <v>16/04/2025</v>
+        <v>18/04/2025</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>5090</v>
+        <v>7080</v>
       </c>
       <c r="I53" t="str">
         <v>Unpaid</v>
@@ -2103,62 +2103,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L53" t="str">
-        <v>18/04/2025 06:46 PM</v>
+        <v>19/04/2025 03:56 PM</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="str">
-        <v>PI148</v>
+        <v>PI152</v>
       </c>
       <c r="C54" t="str">
-        <v>17/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="D54" t="str">
-        <v>Indian Hand Embroidery</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E54">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="F54" t="str">
-        <v>17/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>1118.5</v>
       </c>
       <c r="H54">
-        <v>18920</v>
+        <v>28186</v>
       </c>
       <c r="I54" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K54" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L54" t="str">
-        <v>18/04/2025 05:14 PM</v>
+        <v>19/04/2025 12:55 PM</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="str">
-        <v>PI147</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>PI151</v>
+      </c>
+      <c r="C55" t="str">
+        <v>16/04/2025</v>
       </c>
       <c r="D55" t="str">
-        <v>Indian Hand Embroidery</v>
+        <v>Abu Taher Naiya</v>
       </c>
       <c r="E55">
-        <v>54</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>14</v>
+      </c>
+      <c r="F55" t="str">
+        <v>16/04/2025</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>580</v>
+        <v>5090</v>
       </c>
       <c r="I55" t="str">
         <v>Unpaid</v>
@@ -2167,30 +2167,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L55" t="str">
-        <v>18/04/2025 05:11 PM</v>
+        <v>18/04/2025 06:46 PM</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="str">
-        <v>PI146</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>PI148</v>
+      </c>
+      <c r="C56" t="str">
+        <v>17/04/2025</v>
       </c>
       <c r="D56" t="str">
         <v>Indian Hand Embroidery</v>
       </c>
       <c r="E56">
-        <v>60</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>61</v>
+      </c>
+      <c r="F56" t="str">
+        <v>17/04/2025</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>17020</v>
+        <v>18920</v>
       </c>
       <c r="I56" t="str">
         <v>Unpaid</v>
@@ -2199,30 +2199,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L56" t="str">
-        <v>18/04/2025 05:03 PM</v>
+        <v>18/04/2025 05:14 PM</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="str">
-        <v>PI144</v>
-      </c>
-      <c r="C57" t="str">
-        <v>17/04/2025</v>
+        <v>PI147</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="D57" t="str">
-        <v>Farhan Enterprise</v>
+        <v>Indian Hand Embroidery</v>
       </c>
       <c r="E57">
-        <v>23</v>
-      </c>
-      <c r="F57" t="str">
-        <v>17/04/2025</v>
+        <v>54</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>57040</v>
+        <v>580</v>
       </c>
       <c r="I57" t="str">
         <v>Unpaid</v>
@@ -2231,12 +2231,12 @@
         <v>Suraj Production</v>
       </c>
       <c r="L57" t="str">
-        <v>18/04/2025 04:43 PM</v>
+        <v>18/04/2025 05:11 PM</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
-        <v>PI143</v>
+        <v>PI146</v>
       </c>
       <c r="C58" s="1" t="str">
         <v>07/04/2025</v>
@@ -2245,7 +2245,7 @@
         <v>Indian Hand Embroidery</v>
       </c>
       <c r="E58">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F58" s="1" t="str">
         <v>07/04/2025</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>106210</v>
+        <v>17020</v>
       </c>
       <c r="I58" t="str">
         <v>Unpaid</v>
@@ -2263,30 +2263,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L58" t="str">
-        <v>18/04/2025 04:36 PM</v>
+        <v>18/04/2025 05:03 PM</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="str">
-        <v>PI140</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>PI144</v>
+      </c>
+      <c r="C59" t="str">
+        <v>17/04/2025</v>
       </c>
       <c r="D59" t="str">
-        <v>Indian Hand Embroidery</v>
+        <v>Farhan Enterprise</v>
       </c>
       <c r="E59">
-        <v>55</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>23</v>
+      </c>
+      <c r="F59" t="str">
+        <v>17/04/2025</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>130</v>
+        <v>57040</v>
       </c>
       <c r="I59" t="str">
         <v>Unpaid</v>
@@ -2295,30 +2295,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L59" t="str">
-        <v>18/04/2025 04:31 PM</v>
+        <v>18/04/2025 04:43 PM</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="str">
-        <v>PI136</v>
-      </c>
-      <c r="C60" t="str">
-        <v>14/04/2025</v>
+        <v>PI143</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <v>07/04/2025</v>
       </c>
       <c r="D60" t="str">
-        <v>Bapi Embroidery</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <v>01/25/2026</v>
-      </c>
-      <c r="F60" t="str">
-        <v>14/04/2025</v>
+        <v>Indian Hand Embroidery</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <v>07/04/2025</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>47381</v>
+        <v>106210</v>
       </c>
       <c r="I60" t="str">
         <v>Unpaid</v>
@@ -2327,30 +2327,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L60" t="str">
-        <v>18/04/2025 04:15 PM</v>
+        <v>18/04/2025 04:36 PM</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="str">
-        <v>PI134</v>
-      </c>
-      <c r="C61" t="str">
-        <v>16/04/2025</v>
+        <v>PI140</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="D61" t="str">
-        <v>Lovely Creation</v>
+        <v>Indian Hand Embroidery</v>
       </c>
       <c r="E61">
-        <v>91</v>
-      </c>
-      <c r="F61" t="str">
-        <v>16/04/2025</v>
+        <v>55</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <v>01/04/2025</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1900</v>
+        <v>130</v>
       </c>
       <c r="I61" t="str">
         <v>Unpaid</v>
@@ -2359,21 +2359,21 @@
         <v>Suraj Production</v>
       </c>
       <c r="L61" t="str">
-        <v>18/04/2025 03:35 PM</v>
+        <v>18/04/2025 04:31 PM</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="str">
-        <v>PI130</v>
+        <v>PI136</v>
       </c>
       <c r="C62" t="str">
         <v>14/04/2025</v>
       </c>
       <c r="D62" t="str">
-        <v>N.k Dresses</v>
-      </c>
-      <c r="E62">
-        <v>7</v>
+        <v>Bapi Embroidery</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <v>01/25/2026</v>
       </c>
       <c r="F62" t="str">
         <v>14/04/2025</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>20950</v>
+        <v>47381</v>
       </c>
       <c r="I62" t="str">
         <v>Unpaid</v>
@@ -2391,30 +2391,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L62" t="str">
-        <v>17/04/2025 04:00 PM</v>
+        <v>18/04/2025 04:15 PM</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="str">
-        <v>PI129</v>
+        <v>PI134</v>
       </c>
       <c r="C63" t="str">
-        <v>15/04/2025</v>
+        <v>16/04/2025</v>
       </c>
       <c r="D63" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
+        <v>Lovely Creation</v>
       </c>
       <c r="E63">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="F63" t="str">
-        <v>15/04/2025</v>
+        <v>16/04/2025</v>
       </c>
       <c r="G63">
-        <v>733.7</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>25145</v>
+        <v>1900</v>
       </c>
       <c r="I63" t="str">
         <v>Unpaid</v>
@@ -2423,30 +2423,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L63" t="str">
-        <v>15/04/2025 04:55 PM</v>
+        <v>18/04/2025 03:35 PM</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="str">
-        <v>PI124</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>PI130</v>
+      </c>
+      <c r="C64" t="str">
+        <v>14/04/2025</v>
       </c>
       <c r="D64" t="str">
-        <v>R K Fashion</v>
-      </c>
-      <c r="E64" t="str">
-        <v>RFK/25-26/0006</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>N.k Dresses</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64" t="str">
+        <v>14/04/2025</v>
       </c>
       <c r="G64">
-        <v>460.25</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>60408</v>
+        <v>20950</v>
       </c>
       <c r="I64" t="str">
         <v>Unpaid</v>
@@ -2455,30 +2455,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L64" t="str">
-        <v>12/04/2025 08:00 PM</v>
+        <v>17/04/2025 04:00 PM</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="str">
-        <v>PI123</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>PI129</v>
+      </c>
+      <c r="C65" t="str">
+        <v>15/04/2025</v>
       </c>
       <c r="D65" t="str">
-        <v>R K Fashion</v>
-      </c>
-      <c r="E65" t="str">
-        <v>RKF/25-26/0005</v>
-      </c>
-      <c r="F65" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
+      </c>
+      <c r="E65">
+        <v>194</v>
+      </c>
+      <c r="F65" t="str">
+        <v>15/04/2025</v>
       </c>
       <c r="G65">
-        <v>428.55</v>
+        <v>733.7</v>
       </c>
       <c r="H65">
-        <v>49498</v>
+        <v>25145</v>
       </c>
       <c r="I65" t="str">
         <v>Unpaid</v>
@@ -2487,30 +2487,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L65" t="str">
-        <v>12/04/2025 07:04 PM</v>
+        <v>15/04/2025 04:55 PM</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="str">
-        <v>PI096</v>
+        <v>PI124</v>
       </c>
       <c r="C66" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="D66" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
-      </c>
-      <c r="E66">
-        <v>117</v>
+        <v>R K Fashion</v>
+      </c>
+      <c r="E66" t="str">
+        <v>RFK/25-26/0006</v>
       </c>
       <c r="F66" s="1" t="str">
-        <v>10/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="G66">
-        <v>80</v>
+        <v>460.25</v>
       </c>
       <c r="H66">
-        <v>2016</v>
+        <v>60408</v>
       </c>
       <c r="I66" t="str">
         <v>Unpaid</v>
@@ -2519,30 +2519,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L66" t="str">
-        <v>11/04/2025 04:45 PM</v>
+        <v>12/04/2025 08:00 PM</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="str">
-        <v>PI094</v>
+        <v>PI123</v>
       </c>
       <c r="C67" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="D67" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
-      </c>
-      <c r="E67">
-        <v>83</v>
+        <v>R K Fashion</v>
+      </c>
+      <c r="E67" t="str">
+        <v>RKF/25-26/0005</v>
       </c>
       <c r="F67" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="G67">
-        <v>873</v>
+        <v>428.55</v>
       </c>
       <c r="H67">
-        <v>22000</v>
+        <v>49498</v>
       </c>
       <c r="I67" t="str">
         <v>Unpaid</v>
@@ -2551,62 +2551,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L67" t="str">
-        <v>10/04/2025 03:04 PM</v>
+        <v>12/04/2025 07:04 PM</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="str">
-        <v>PI092</v>
+        <v>PI096</v>
       </c>
       <c r="C68" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>10/04/2025</v>
       </c>
       <c r="D68" t="str">
-        <v>Business Coaching India Llp</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E68">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F68" s="1" t="str">
-        <v>01/04/2025</v>
+        <v>10/04/2025</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H68">
-        <v>442500</v>
+        <v>2016</v>
       </c>
       <c r="I68" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K68" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L68" t="str">
-        <v>10/04/2025 12:54 PM</v>
+        <v>11/04/2025 04:45 PM</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="str">
-        <v>PI089</v>
+        <v>PI094</v>
       </c>
       <c r="C69" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>09/04/2025</v>
       </c>
       <c r="D69" t="str">
         <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E69">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F69" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>09/04/2025</v>
       </c>
       <c r="G69">
-        <v>1483.1</v>
+        <v>873</v>
       </c>
       <c r="H69">
-        <v>50829</v>
+        <v>22000</v>
       </c>
       <c r="I69" t="str">
         <v>Unpaid</v>
@@ -2615,62 +2615,62 @@
         <v>Suraj Production</v>
       </c>
       <c r="L69" t="str">
-        <v>08/04/2025 03:52 PM</v>
+        <v>10/04/2025 03:04 PM</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
-        <v>PI087</v>
+        <v>PI092</v>
       </c>
       <c r="C70" s="1" t="str">
-        <v>04/04/2025</v>
+        <v>01/04/2025</v>
       </c>
       <c r="D70" t="str">
-        <v>Lovely Creation</v>
+        <v>Business Coaching India Llp</v>
       </c>
       <c r="E70">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F70" s="1" t="str">
-        <v>04/04/2025</v>
+        <v>01/04/2025</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>47250</v>
+        <v>442500</v>
       </c>
       <c r="I70" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K70" t="str">
-        <v>Suraj Production</v>
+        <v>Mohit Accounts</v>
       </c>
       <c r="L70" t="str">
-        <v>08/04/2025 12:40 PM</v>
+        <v>10/04/2025 12:54 PM</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="str">
-        <v>PI086</v>
+        <v>PI089</v>
       </c>
       <c r="C71" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="D71" t="str">
         <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E71">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F71" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="G71">
-        <v>781</v>
+        <v>1483.1</v>
       </c>
       <c r="H71">
-        <v>19681</v>
+        <v>50829</v>
       </c>
       <c r="I71" t="str">
         <v>Unpaid</v>
@@ -2679,30 +2679,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L71" t="str">
-        <v>07/04/2025 04:00 PM</v>
+        <v>08/04/2025 03:52 PM</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="str">
-        <v>PI085</v>
+        <v>PI087</v>
       </c>
       <c r="C72" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>04/04/2025</v>
       </c>
       <c r="D72" t="str">
-        <v>Deepak Kumar Mukesh Kumar</v>
+        <v>Lovely Creation</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F72" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>04/04/2025</v>
       </c>
       <c r="G72">
-        <v>361.5</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>9110</v>
+        <v>47250</v>
       </c>
       <c r="I72" t="str">
         <v>Unpaid</v>
@@ -2711,30 +2711,30 @@
         <v>Suraj Production</v>
       </c>
       <c r="L72" t="str">
-        <v>07/04/2025 03:56 PM</v>
+        <v>08/04/2025 12:40 PM</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="str">
-        <v>PI061</v>
+        <v>PI086</v>
       </c>
       <c r="C73" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="D73" t="str">
         <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E73">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F73" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="G73">
-        <v>180</v>
+        <v>781</v>
       </c>
       <c r="H73">
-        <v>4536</v>
+        <v>19681</v>
       </c>
       <c r="I73" t="str">
         <v>Unpaid</v>
@@ -2743,87 +2743,151 @@
         <v>Suraj Production</v>
       </c>
       <c r="L73" t="str">
-        <v>07/04/2025 12:37 PM</v>
+        <v>07/04/2025 04:00 PM</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="str">
-        <v>PI060</v>
+        <v>PI085</v>
       </c>
       <c r="C74" s="1" t="str">
-        <v>04/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="D74" t="str">
-        <v>Infiniti Retail Limited (Croma)</v>
-      </c>
-      <c r="E74" t="str">
-        <v>SLA180369489084</v>
+        <v>Deepak Kumar Mukesh Kumar</v>
+      </c>
+      <c r="E74">
+        <v>50</v>
       </c>
       <c r="F74" s="1" t="str">
-        <v>04/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>361.5</v>
       </c>
       <c r="H74">
-        <v>32883</v>
+        <v>9110</v>
       </c>
       <c r="I74" t="str">
         <v>Unpaid</v>
       </c>
       <c r="K74" t="str">
-        <v>Mohit Accounts</v>
+        <v>Suraj Production</v>
       </c>
       <c r="L74" t="str">
-        <v>07/04/2025 12:29 PM</v>
+        <v>07/04/2025 03:56 PM</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="str">
-        <v>PI030</v>
+        <v>PI061</v>
       </c>
       <c r="C75" s="1" t="str">
-        <v>04/04/2025</v>
+        <v>05/04/2025</v>
       </c>
       <c r="D75" t="str">
         <v>Deepak Kumar Mukesh Kumar</v>
       </c>
       <c r="E75">
+        <v>44</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="G75">
+        <v>180</v>
+      </c>
+      <c r="H75">
+        <v>4536</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Unpaid</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Suraj Production</v>
+      </c>
+      <c r="L75" t="str">
+        <v>07/04/2025 12:37 PM</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="str">
+        <v>PI060</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Infiniti Retail Limited (Croma)</v>
+      </c>
+      <c r="E76" t="str">
+        <v>SLA180369489084</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>32883</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Unpaid</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Mohit Accounts</v>
+      </c>
+      <c r="L76" t="str">
+        <v>07/04/2025 12:29 PM</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="str">
+        <v>PI030</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Deepak Kumar Mukesh Kumar</v>
+      </c>
+      <c r="E77">
         <v>16</v>
       </c>
-      <c r="F75" s="1" t="str">
+      <c r="F77" s="1" t="str">
         <v>04/04/2025</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <v>1464</v>
       </c>
-      <c r="H75">
+      <c r="H77">
         <v>50174</v>
       </c>
-      <c r="I75" t="str">
-        <v>Unpaid</v>
-      </c>
-      <c r="K75" t="str">
+      <c r="I77" t="str">
+        <v>Unpaid</v>
+      </c>
+      <c r="K77" t="str">
         <v>Sapna Marketing</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L77" t="str">
         <v>04/04/2025 04:07 PM</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="str">
+    <row r="78">
+      <c r="F78" t="str">
         <v>Grand Total</v>
       </c>
-      <c r="G76">
-        <v>13036.55</v>
-      </c>
-      <c r="H76">
-        <v>1930996</v>
+      <c r="G78">
+        <v>13041.55</v>
+      </c>
+      <c r="H78">
+        <v>1933916</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M78"/>
   </ignoredErrors>
 </worksheet>
 </file>